--- a/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Mayo.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Mayo.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>302</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -328,11 +328,11 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Declara Inadmisibilidad De La Querella.</t>
+          <t xml:space="preserve">Declara Incompetencia Rpa</t>
         </is>
       </c>
       <c r="C9" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -343,11 +343,11 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Declara Incompetencia Rpa</t>
+          <t xml:space="preserve">Declara Incompetencia.</t>
         </is>
       </c>
       <c r="C10" s="65">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -358,11 +358,11 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
+          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
         </is>
       </c>
       <c r="C11" s="65">
-        <v>64</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
@@ -373,11 +373,11 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
         </is>
       </c>
       <c r="C12" s="65">
-        <v>414</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
@@ -388,26 +388,11 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
       <c r="C13" s="65">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="inlineStr" r="A14">
-        <is>
-          <t xml:space="preserve">Juzgado De Garantía De Antofagasta.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B14">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C14" s="65">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
